--- a/ANÁLISE/TCC_Comparação Mercado.xlsx
+++ b/ANÁLISE/TCC_Comparação Mercado.xlsx
@@ -536,7 +536,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
